--- a/data/gestures/jaco_gestures/Key joint values.xlsx
+++ b/data/gestures/jaco_gestures/Key joint values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmoln\Documents\Projects\NonAnthroHands_User_Study\data\gestures\jaco_gestures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA680F22-70D0-4A57-964C-AE78803B77C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3987019-4D17-4314-8CEB-6316CF28F140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{285818F9-1BD3-4F0D-8E91-612AE6A72065}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
   <si>
     <t>Jaco Gestures:</t>
   </si>
@@ -259,6 +260,27 @@
   </si>
   <si>
     <t>Push backwards/left</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Final gesture set:</t>
+  </si>
+  <si>
+    <t>Needs target:</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Needs wall/ceiling:</t>
+  </si>
+  <si>
+    <t>Needs box</t>
+  </si>
+  <si>
+    <t>Needs tabletop:</t>
   </si>
 </sst>
 </file>
@@ -274,7 +296,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,6 +306,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,8 +334,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9CBC5D-5D25-46F3-AB0B-6EBCA30BEFD7}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -640,12 +668,12 @@
     <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -679,8 +707,23 @@
       <c r="M3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -720,8 +763,11 @@
       <c r="N4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -755,14 +801,17 @@
       <c r="L5">
         <v>94</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <v>2</v>
       </c>
       <c r="N5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -796,14 +845,17 @@
       <c r="L6">
         <v>90</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <v>3</v>
       </c>
       <c r="N6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -837,14 +889,17 @@
       <c r="L7">
         <v>114</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <v>4</v>
       </c>
       <c r="N7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -878,14 +933,17 @@
       <c r="L8">
         <v>109</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="3">
         <v>5</v>
       </c>
       <c r="N8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -919,33 +977,54 @@
       <c r="L9">
         <v>112</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>6</v>
       </c>
       <c r="N9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M10" s="4">
+      <c r="P9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="M10" s="3">
         <v>7</v>
       </c>
       <c r="N10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P10" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>77</v>
+      </c>
+      <c r="U10">
+        <v>-1.7018789999999999E-2</v>
+      </c>
+      <c r="V10">
+        <v>0.54945699999999997</v>
+      </c>
+      <c r="W10">
+        <v>-0.97738959999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <v>8</v>
       </c>
       <c r="N11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -955,14 +1034,29 @@
       <c r="E12" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>9</v>
       </c>
       <c r="N12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>77</v>
+      </c>
+      <c r="U12">
+        <v>-0.63899999900000004</v>
+      </c>
+      <c r="V12">
+        <v>0.56699997199999996</v>
+      </c>
+      <c r="W12">
+        <v>-0.36700001399999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>32</v>
       </c>
@@ -972,96 +1066,186 @@
       <c r="E13" t="s">
         <v>66</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <v>10</v>
       </c>
       <c r="N13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P13" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>77</v>
+      </c>
+      <c r="U13">
+        <v>0.827000022</v>
+      </c>
+      <c r="V13">
+        <v>0.312999994</v>
+      </c>
+      <c r="W13">
+        <v>-4.3999999800000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>37</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="3">
         <v>11</v>
       </c>
       <c r="N14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q14" t="s">
+        <v>77</v>
+      </c>
+      <c r="U14">
+        <v>-1.7000000899999999E-2</v>
+      </c>
+      <c r="V14">
+        <v>0.38999998600000002</v>
+      </c>
+      <c r="W14">
+        <v>-0.61500001000000004</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0.32899999600000002</v>
+      </c>
+      <c r="AA14">
+        <v>-0.46900001200000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="3">
         <v>12</v>
       </c>
       <c r="N15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="U15">
+        <v>0.51499998599999997</v>
+      </c>
+      <c r="V15">
+        <v>0.52899998400000003</v>
+      </c>
+      <c r="W15">
+        <v>-0.20499999799999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="3">
         <v>13</v>
       </c>
       <c r="N16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P16" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>77</v>
+      </c>
+      <c r="R16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="3">
         <v>14</v>
       </c>
       <c r="N17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q17" t="s">
+        <v>77</v>
+      </c>
+      <c r="R17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>41</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="3">
         <v>15</v>
       </c>
       <c r="N18" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M19">
+      <c r="P18" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>77</v>
+      </c>
+      <c r="R18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M19" s="3">
         <v>16</v>
       </c>
       <c r="N19" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M20">
+      <c r="Q19" t="s">
+        <v>77</v>
+      </c>
+      <c r="R19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M20" s="3">
         <v>17</v>
       </c>
       <c r="N20" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q20" t="s">
+        <v>77</v>
+      </c>
+      <c r="R20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>44</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="3">
         <v>18</v>
       </c>
       <c r="N21" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P21" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>77</v>
+      </c>
+      <c r="R21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>45</v>
       </c>
@@ -1086,14 +1270,17 @@
       <c r="I22" t="s">
         <v>50</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="4">
         <v>19</v>
       </c>
       <c r="N22" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>51</v>
       </c>
@@ -1109,14 +1296,23 @@
       <c r="F23" t="s">
         <v>65</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="3">
         <v>20</v>
       </c>
       <c r="N23" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P23" t="s">
+        <v>74</v>
+      </c>
+      <c r="S23" t="s">
+        <v>77</v>
+      </c>
+      <c r="T23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>52</v>
       </c>
@@ -1141,11 +1337,20 @@
       <c r="I24" t="s">
         <v>60</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="3">
         <v>21</v>
       </c>
       <c r="N24" t="s">
         <v>73</v>
+      </c>
+      <c r="P24" t="s">
+        <v>74</v>
+      </c>
+      <c r="S24" t="s">
+        <v>77</v>
+      </c>
+      <c r="T24" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
